--- a/biology/Médecine/Eugène_Follin/Eugène_Follin.xlsx
+++ b/biology/Médecine/Eugène_Follin/Eugène_Follin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Follin</t>
+          <t>Eugène_Follin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Follin né le 25 novembre 1823 à Harfleur et mort le 21 mai 1867 est un chirurgien et ophtalmologue français créateur de l'ophtalmoscope Follin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Follin né le 25 novembre 1823 à Harfleur et mort le 21 mai 1867 est un chirurgien et ophtalmologue français créateur de l'ophtalmoscope Follin.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Follin</t>
+          <t>Eugène_Follin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Anthime Eugène[2] Follin étudie sa médecine à Paris, il est interne en 1845, aide de l'anatomie en 1847 et prosecteur en 1850.  Il obtient son doctorat en 1850 avec sa thèse Recherches sur les corps de Wolf[3]. En 1853, il devient professeur agrégé de chirurgie. Il fait partie des trois mousquetaires[4] avec Aristide Verneuil et Paul Broca.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Anthime Eugène Follin étudie sa médecine à Paris, il est interne en 1845, aide de l'anatomie en 1847 et prosecteur en 1850.  Il obtient son doctorat en 1850 avec sa thèse Recherches sur les corps de Wolf. En 1853, il devient professeur agrégé de chirurgie. Il fait partie des trois mousquetaires avec Aristide Verneuil et Paul Broca.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Follin</t>
+          <t>Eugène_Follin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses premiers écrits traitent de l'anatomie, la pathologie et la chirurgie générale[5],[6],[7].
-Après de nombreux articles sur le glaucome, iridectomie, hébergement, hémorragie rétinienne et le traitement des maladies des voies lacrymales il se spécialise dans l'ophtalmologie[8].
-Son ouvrage de référence est en 1859 Leçons sur l'exploration de l'œil et en particulier sur les applications de l'ophtalmoscope au diagnostic des maladies des yeux[9]. cet atlas est considéré comme le premier ouvrage en langue française consacré à l'utilisation de l'ophtalmoscope.
-L'ophtalmoscope Follin est le premier modèle d'ophtalmoscope pour l'examen des milieux transparents et du fond de l'œil. Il contient quatre verres correcteurs montés dans un disque rotatif de sorte que chaque lentille peut être mise en rotation en face de l'ouverture de l'objectif de l'appareil[1],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses premiers écrits traitent de l'anatomie, la pathologie et la chirurgie générale.
+Après de nombreux articles sur le glaucome, iridectomie, hébergement, hémorragie rétinienne et le traitement des maladies des voies lacrymales il se spécialise dans l'ophtalmologie.
+Son ouvrage de référence est en 1859 Leçons sur l'exploration de l'œil et en particulier sur les applications de l'ophtalmoscope au diagnostic des maladies des yeux. cet atlas est considéré comme le premier ouvrage en langue française consacré à l'utilisation de l'ophtalmoscope.
+L'ophtalmoscope Follin est le premier modèle d'ophtalmoscope pour l'examen des milieux transparents et du fond de l'œil. Il contient quatre verres correcteurs montés dans un disque rotatif de sorte que chaque lentille peut être mise en rotation en face de l'ouverture de l'objectif de l'appareil,.
 </t>
         </is>
       </c>
